--- a/Testing/TestingDoument.xlsx
+++ b/Testing/TestingDoument.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varun Joglekar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varun Joglekar\Documents\GitHub\Group-3\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="193">
   <si>
     <t>S.No,</t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t>Empty value of µ</t>
+  </si>
+  <si>
+    <t>Should raise an error message</t>
+  </si>
+  <si>
+    <t>Space Seperated Input in No. of Nodes field</t>
+  </si>
+  <si>
+    <t>Space Seperated Input in ε field</t>
+  </si>
+  <si>
+    <t>Space Seperated Input in µ field</t>
   </si>
 </sst>
 </file>
@@ -1072,13 +1084,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1681,11 +1693,11 @@
       </c>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="2" t="s">
-        <v>98</v>
+      <c r="C50" t="s">
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
@@ -1693,10 +1705,10 @@
     </row>
     <row r="51" spans="3:5">
       <c r="C51" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
@@ -1704,21 +1716,21 @@
     </row>
     <row r="52" spans="3:5">
       <c r="C52" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" t="s">
-        <v>104</v>
+      <c r="C53" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
@@ -1726,10 +1738,10 @@
     </row>
     <row r="54" spans="3:5">
       <c r="C54" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
@@ -1737,21 +1749,21 @@
     </row>
     <row r="55" spans="3:5">
       <c r="C55" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="2" t="s">
-        <v>98</v>
+      <c r="C56" t="s">
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>8</v>
@@ -1759,10 +1771,10 @@
     </row>
     <row r="57" spans="3:5">
       <c r="C57" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8</v>
@@ -1770,21 +1782,21 @@
     </row>
     <row r="58" spans="3:5">
       <c r="C58" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
         <v>110</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5">
-      <c r="C59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" t="s">
-        <v>112</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
@@ -1792,10 +1804,10 @@
     </row>
     <row r="60" spans="3:5">
       <c r="C60" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>8</v>
@@ -1803,10 +1815,10 @@
     </row>
     <row r="61" spans="3:5">
       <c r="C61" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
@@ -1814,21 +1826,21 @@
     </row>
     <row r="62" spans="3:5">
       <c r="C62" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="2" t="s">
-        <v>98</v>
+      <c r="C63" t="s">
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>8</v>
@@ -1836,7 +1848,7 @@
     </row>
     <row r="64" spans="3:5">
       <c r="C64" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
         <v>114</v>
@@ -1847,7 +1859,7 @@
     </row>
     <row r="65" spans="3:5">
       <c r="C65" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
         <v>115</v>
@@ -1857,11 +1869,11 @@
       </c>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" t="s">
-        <v>106</v>
+      <c r="C66" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>8</v>
@@ -1869,10 +1881,10 @@
     </row>
     <row r="67" spans="3:5">
       <c r="C67" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>8</v>
@@ -1880,10 +1892,10 @@
     </row>
     <row r="68" spans="3:5">
       <c r="C68" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
@@ -1891,10 +1903,10 @@
     </row>
     <row r="69" spans="3:5">
       <c r="C69" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>8</v>
@@ -1902,7 +1914,7 @@
     </row>
     <row r="70" spans="3:5">
       <c r="C70" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
         <v>117</v>
@@ -1913,10 +1925,10 @@
     </row>
     <row r="71" spans="3:5">
       <c r="C71" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>8</v>
@@ -1924,10 +1936,10 @@
     </row>
     <row r="72" spans="3:5">
       <c r="C72" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>8</v>
@@ -1935,10 +1947,10 @@
     </row>
     <row r="73" spans="3:5">
       <c r="C73" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>8</v>
@@ -1946,10 +1958,10 @@
     </row>
     <row r="74" spans="3:5">
       <c r="C74" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>8</v>
@@ -1957,10 +1969,10 @@
     </row>
     <row r="75" spans="3:5">
       <c r="C75" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>8</v>
@@ -1968,10 +1980,10 @@
     </row>
     <row r="76" spans="3:5">
       <c r="C76" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>8</v>
@@ -1982,7 +1994,7 @@
         <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>8</v>
@@ -1990,10 +2002,10 @@
     </row>
     <row r="78" spans="3:5">
       <c r="C78" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>8</v>
@@ -2004,7 +2016,7 @@
         <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>8</v>
@@ -2012,10 +2024,10 @@
     </row>
     <row r="80" spans="3:5">
       <c r="C80" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>8</v>
@@ -2023,24 +2035,21 @@
     </row>
     <row r="81" spans="2:5">
       <c r="C81" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" t="s">
-        <v>136</v>
-      </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>8</v>
@@ -2048,10 +2057,10 @@
     </row>
     <row r="83" spans="2:5">
       <c r="C83" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>8</v>
@@ -2059,21 +2068,24 @@
     </row>
     <row r="84" spans="2:5">
       <c r="C84" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
@@ -2081,10 +2093,10 @@
     </row>
     <row r="86" spans="2:5">
       <c r="C86" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>8</v>
@@ -2092,10 +2104,10 @@
     </row>
     <row r="87" spans="2:5">
       <c r="C87" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
@@ -2103,10 +2115,10 @@
     </row>
     <row r="88" spans="2:5">
       <c r="C88" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
@@ -2114,10 +2126,10 @@
     </row>
     <row r="89" spans="2:5">
       <c r="C89" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>8</v>
@@ -2125,10 +2137,10 @@
     </row>
     <row r="90" spans="2:5">
       <c r="C90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>8</v>
@@ -2136,10 +2148,10 @@
     </row>
     <row r="91" spans="2:5">
       <c r="C91" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>8</v>
@@ -2147,10 +2159,10 @@
     </row>
     <row r="92" spans="2:5">
       <c r="C92" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>8</v>
@@ -2158,10 +2170,10 @@
     </row>
     <row r="93" spans="2:5">
       <c r="C93" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>8</v>
@@ -2169,10 +2181,10 @@
     </row>
     <row r="94" spans="2:5">
       <c r="C94" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>8</v>
@@ -2180,10 +2192,10 @@
     </row>
     <row r="95" spans="2:5">
       <c r="C95" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>8</v>
@@ -2191,10 +2203,10 @@
     </row>
     <row r="96" spans="2:5">
       <c r="C96" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>8</v>
@@ -2202,10 +2214,10 @@
     </row>
     <row r="97" spans="2:5">
       <c r="C97" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>8</v>
@@ -2213,24 +2225,21 @@
     </row>
     <row r="98" spans="2:5">
       <c r="C98" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>8</v>
@@ -2238,10 +2247,10 @@
     </row>
     <row r="100" spans="2:5">
       <c r="C100" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>8</v>
@@ -2249,21 +2258,24 @@
     </row>
     <row r="101" spans="2:5">
       <c r="C101" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>181</v>
+      </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>8</v>
@@ -2271,10 +2283,10 @@
     </row>
     <row r="103" spans="2:5">
       <c r="C103" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>8</v>
@@ -2282,10 +2294,10 @@
     </row>
     <row r="104" spans="2:5">
       <c r="C104" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D104" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
@@ -2293,10 +2305,10 @@
     </row>
     <row r="105" spans="2:5">
       <c r="C105" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
@@ -2304,10 +2316,10 @@
     </row>
     <row r="106" spans="2:5">
       <c r="C106" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>8</v>
@@ -2315,10 +2327,10 @@
     </row>
     <row r="107" spans="2:5">
       <c r="C107" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>8</v>
@@ -2326,10 +2338,10 @@
     </row>
     <row r="108" spans="2:5">
       <c r="C108" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D108" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
@@ -2337,10 +2349,10 @@
     </row>
     <row r="109" spans="2:5">
       <c r="C109" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>8</v>
@@ -2348,10 +2360,10 @@
     </row>
     <row r="110" spans="2:5">
       <c r="C110" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>8</v>
@@ -2359,10 +2371,10 @@
     </row>
     <row r="111" spans="2:5">
       <c r="C111" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>8</v>
@@ -2370,10 +2382,10 @@
     </row>
     <row r="112" spans="2:5">
       <c r="C112" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>8</v>
@@ -2381,10 +2393,10 @@
     </row>
     <row r="113" spans="3:5">
       <c r="C113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>8</v>
@@ -2392,10 +2404,10 @@
     </row>
     <row r="114" spans="3:5">
       <c r="C114" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>8</v>
@@ -2403,10 +2415,10 @@
     </row>
     <row r="115" spans="3:5">
       <c r="C115" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>8</v>
@@ -2414,10 +2426,10 @@
     </row>
     <row r="116" spans="3:5">
       <c r="C116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>8</v>
@@ -2425,18 +2437,51 @@
     </row>
     <row r="117" spans="3:5">
       <c r="C117" t="s">
+        <v>172</v>
+      </c>
+      <c r="D117" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5">
+      <c r="C118" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5">
+      <c r="C119" t="s">
         <v>177</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D119" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5">
+      <c r="C120" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" t="s">
         <v>179</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E1:E44 E45:E117">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E1:E44 E45:E120">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>
